--- a/Bitacoras/NRC_163_Grupo_47/Parcial_01/Bitacora_Laboratorio_Parcial_01_NRC_164.xlsx
+++ b/Bitacoras/NRC_163_Grupo_47/Parcial_01/Bitacora_Laboratorio_Parcial_01_NRC_164.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Bitacoras\NRC_163_Grupo_47\Parcial_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB6BFE7-2D96-46B1-8B39-7C544E5905B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E49E7AD-F493-4AF1-B28D-0C69CCBC570E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="394" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="495" windowWidth="10860" windowHeight="9705" tabRatio="394" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos de asignación" sheetId="1" r:id="rId1"/>
@@ -456,22 +456,26 @@
       <sz val="18"/>
       <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000EE"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -632,7 +636,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="" xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer">
+      <mc:Fallback xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -710,7 +714,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="" xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer">
+      <mc:Fallback xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name="Name"/>
@@ -809,9 +813,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -849,7 +853,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -955,7 +959,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1097,7 +1101,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4357,7 +4361,10 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C14"/>
+      <pane xSplit="5400" ySplit="1200" topLeftCell="K6" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4973,7 +4980,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:C14" xr:uid="{6ACAA42B-43DC-43C5-901D-DA9006CFC6D7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K14">
     <sortCondition ref="A3:A14"/>
   </sortState>
